--- a/Dataset/1_label/V1_5 divisions_per_second.xlsx
+++ b/Dataset/1_label/V1_5 divisions_per_second.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM_Gauge\Dataset\1_label\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM_Gauge\VLM_gauge\Dataset\1_label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C211CBD2-B55D-41FD-A785-A293FDEE9E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7442B-F07B-4F2B-AD89-496017149E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Ground_Truth" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,9 +58,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>circular_dial</t>
-  </si>
-  <si>
     <t>instrument_metadata.type</t>
   </si>
   <si>
@@ -66,9 +74,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>PSI</t>
   </si>
   <si>
     <t>instrument_metadata.unit</t>
@@ -141,6 +146,13 @@
   </si>
   <si>
     <t>constant_velocity</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -587,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -598,13 +610,13 @@
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -612,13 +624,13 @@
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -626,13 +638,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -640,13 +652,13 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -654,13 +666,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -668,13 +680,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -682,13 +694,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -696,13 +708,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>65489</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -710,28 +722,28 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -762,9 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="I193" sqref="I193"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -773,13 +783,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -793,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -807,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -821,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -835,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -849,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -863,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -877,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -891,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -905,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -919,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -933,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -947,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -961,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -975,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -989,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1003,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1017,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1031,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1045,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1059,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1073,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1084,10 +1094,10 @@
         <v>6000</v>
       </c>
       <c r="C23">
-        <v>0.87</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1098,10 +1108,10 @@
         <v>6200</v>
       </c>
       <c r="C24">
-        <v>1.73</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1112,10 +1122,10 @@
         <v>6400</v>
       </c>
       <c r="C25">
-        <v>2.6</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1126,10 +1136,10 @@
         <v>6600</v>
       </c>
       <c r="C26">
-        <v>3.47</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1140,10 +1150,10 @@
         <v>6800</v>
       </c>
       <c r="C27">
-        <v>4.33</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1154,10 +1164,10 @@
         <v>7000</v>
       </c>
       <c r="C28">
-        <v>5.2</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1168,10 +1178,10 @@
         <v>7200</v>
       </c>
       <c r="C29">
-        <v>6.1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1182,10 +1192,10 @@
         <v>7400</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1196,10 +1206,10 @@
         <v>7600</v>
       </c>
       <c r="C31">
-        <v>7.9</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1210,10 +1220,10 @@
         <v>7800</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1224,10 +1234,10 @@
         <v>8000</v>
       </c>
       <c r="C33">
-        <v>10.1</v>
+        <v>0.10099999999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1238,10 +1248,10 @@
         <v>8200</v>
       </c>
       <c r="C34">
-        <v>11.2</v>
+        <v>0.11199999999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1252,10 +1262,10 @@
         <v>8400</v>
       </c>
       <c r="C35">
-        <v>12.3</v>
+        <v>0.12300000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1266,10 +1276,10 @@
         <v>8600</v>
       </c>
       <c r="C36">
-        <v>13.4</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1280,10 +1290,10 @@
         <v>8800</v>
       </c>
       <c r="C37">
-        <v>14.5</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1294,10 +1304,10 @@
         <v>9000</v>
       </c>
       <c r="C38">
-        <v>15.6</v>
+        <v>0.156</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1308,10 +1318,10 @@
         <v>9200</v>
       </c>
       <c r="C39">
-        <v>16.600000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1322,10 +1332,10 @@
         <v>9400</v>
       </c>
       <c r="C40">
-        <v>17.59</v>
+        <v>0.1759</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1336,10 +1346,10 @@
         <v>9600</v>
       </c>
       <c r="C41">
-        <v>18.59</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1350,10 +1360,10 @@
         <v>9800</v>
       </c>
       <c r="C42">
-        <v>19.59</v>
+        <v>0.19589999999999999</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1364,10 +1374,10 @@
         <v>10000</v>
       </c>
       <c r="C43">
-        <v>20.59</v>
+        <v>0.2059</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1378,10 +1388,10 @@
         <v>10200</v>
       </c>
       <c r="C44">
-        <v>21.58</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1392,10 +1402,10 @@
         <v>10400</v>
       </c>
       <c r="C45">
-        <v>22.58</v>
+        <v>0.22579999999999997</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1406,10 +1416,10 @@
         <v>10600</v>
       </c>
       <c r="C46">
-        <v>23.58</v>
+        <v>0.23579999999999998</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1420,10 +1430,10 @@
         <v>10800</v>
       </c>
       <c r="C47">
-        <v>24.58</v>
+        <v>0.24579999999999999</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1434,10 +1444,10 @@
         <v>11000</v>
       </c>
       <c r="C48">
-        <v>25.57</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1448,10 +1458,10 @@
         <v>11200</v>
       </c>
       <c r="C49">
-        <v>26.57</v>
+        <v>0.26569999999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1462,10 +1472,10 @@
         <v>11400</v>
       </c>
       <c r="C50">
-        <v>27.57</v>
+        <v>0.2757</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1476,10 +1486,10 @@
         <v>11600</v>
       </c>
       <c r="C51">
-        <v>28.57</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1490,10 +1500,10 @@
         <v>11800</v>
       </c>
       <c r="C52">
-        <v>29.56</v>
+        <v>0.29559999999999997</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1504,10 +1514,10 @@
         <v>12000</v>
       </c>
       <c r="C53">
-        <v>30.56</v>
+        <v>0.30559999999999998</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1518,10 +1528,10 @@
         <v>12200</v>
       </c>
       <c r="C54">
-        <v>31.56</v>
+        <v>0.31559999999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1532,10 +1542,10 @@
         <v>12400</v>
       </c>
       <c r="C55">
-        <v>32.56</v>
+        <v>0.3256</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1546,10 +1556,10 @@
         <v>12600</v>
       </c>
       <c r="C56">
-        <v>33.549999999999997</v>
+        <v>0.33549999999999996</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1560,10 +1570,10 @@
         <v>12800</v>
       </c>
       <c r="C57">
-        <v>34.549999999999997</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1574,10 +1584,10 @@
         <v>13000</v>
       </c>
       <c r="C58">
-        <v>35.549999999999997</v>
+        <v>0.35549999999999998</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1588,10 +1598,10 @@
         <v>13200</v>
       </c>
       <c r="C59">
-        <v>36.549999999999997</v>
+        <v>0.36549999999999999</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1602,10 +1612,10 @@
         <v>13400</v>
       </c>
       <c r="C60">
-        <v>37.54</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1616,10 +1626,10 @@
         <v>13600</v>
       </c>
       <c r="C61">
-        <v>38.54</v>
+        <v>0.38539999999999996</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1630,10 +1640,10 @@
         <v>13800</v>
       </c>
       <c r="C62">
-        <v>39.54</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1644,10 +1654,10 @@
         <v>14000</v>
       </c>
       <c r="C63">
-        <v>40.54</v>
+        <v>0.40539999999999998</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1658,10 +1668,10 @@
         <v>14200</v>
       </c>
       <c r="C64">
-        <v>41.53</v>
+        <v>0.4153</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1672,10 +1682,10 @@
         <v>14400</v>
       </c>
       <c r="C65">
-        <v>42.53</v>
+        <v>0.42530000000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1686,10 +1696,10 @@
         <v>14600</v>
       </c>
       <c r="C66">
-        <v>43.53</v>
+        <v>0.43530000000000002</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1700,10 +1710,10 @@
         <v>14800</v>
       </c>
       <c r="C67">
-        <v>44.53</v>
+        <v>0.44530000000000003</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1714,10 +1724,10 @@
         <v>15000</v>
       </c>
       <c r="C68">
-        <v>45.52</v>
+        <v>0.45520000000000005</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1728,10 +1738,10 @@
         <v>15200</v>
       </c>
       <c r="C69">
-        <v>46.52</v>
+        <v>0.46520000000000006</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1742,10 +1752,10 @@
         <v>15400</v>
       </c>
       <c r="C70">
-        <v>47.52</v>
+        <v>0.47520000000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1756,10 +1766,10 @@
         <v>15600</v>
       </c>
       <c r="C71">
-        <v>48.52</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1770,10 +1780,10 @@
         <v>15800</v>
       </c>
       <c r="C72">
-        <v>49.51</v>
+        <v>0.49509999999999998</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1784,10 +1794,10 @@
         <v>16000</v>
       </c>
       <c r="C73">
-        <v>50.51</v>
+        <v>0.50509999999999999</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1798,10 +1808,10 @@
         <v>16200</v>
       </c>
       <c r="C74">
-        <v>51.51</v>
+        <v>0.5151</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1812,10 +1822,10 @@
         <v>16400</v>
       </c>
       <c r="C75">
-        <v>52.51</v>
+        <v>0.52510000000000001</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1826,10 +1836,10 @@
         <v>16600</v>
       </c>
       <c r="C76">
-        <v>53.5</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1840,10 +1850,10 @@
         <v>16800</v>
       </c>
       <c r="C77">
-        <v>54.5</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1854,10 +1864,10 @@
         <v>17000</v>
       </c>
       <c r="C78">
-        <v>55.5</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1868,10 +1878,10 @@
         <v>17200</v>
       </c>
       <c r="C79">
-        <v>56.49</v>
+        <v>0.56490000000000007</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1882,10 +1892,10 @@
         <v>17400</v>
       </c>
       <c r="C80">
-        <v>57.49</v>
+        <v>0.57489999999999997</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1896,10 +1906,10 @@
         <v>17600</v>
       </c>
       <c r="C81">
-        <v>58.49</v>
+        <v>0.58489999999999998</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1910,10 +1920,10 @@
         <v>17800</v>
       </c>
       <c r="C82">
-        <v>59.49</v>
+        <v>0.59489999999999998</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1924,10 +1934,10 @@
         <v>18000</v>
       </c>
       <c r="C83">
-        <v>60.48</v>
+        <v>0.6048</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1938,10 +1948,10 @@
         <v>18200</v>
       </c>
       <c r="C84">
-        <v>61.48</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1952,10 +1962,10 @@
         <v>18400</v>
       </c>
       <c r="C85">
-        <v>62.48</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1966,10 +1976,10 @@
         <v>18600</v>
       </c>
       <c r="C86">
-        <v>63.47</v>
+        <v>0.63470000000000004</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1980,10 +1990,10 @@
         <v>18800</v>
       </c>
       <c r="C87">
-        <v>64.47</v>
+        <v>0.64469999999999994</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1994,10 +2004,10 @@
         <v>19000</v>
       </c>
       <c r="C88">
-        <v>65.47</v>
+        <v>0.65469999999999995</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2008,10 +2018,10 @@
         <v>19200</v>
       </c>
       <c r="C89">
-        <v>66.459999999999994</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2022,10 +2032,10 @@
         <v>19400</v>
       </c>
       <c r="C90">
-        <v>67.459999999999994</v>
+        <v>0.67459999999999998</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2036,10 +2046,10 @@
         <v>19600</v>
       </c>
       <c r="C91">
-        <v>68.459999999999994</v>
+        <v>0.68459999999999999</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2050,10 +2060,10 @@
         <v>19800</v>
       </c>
       <c r="C92">
-        <v>69.459999999999994</v>
+        <v>0.69459999999999988</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2064,10 +2074,10 @@
         <v>20000</v>
       </c>
       <c r="C93">
-        <v>70.45</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2078,10 +2088,10 @@
         <v>20200</v>
       </c>
       <c r="C94">
-        <v>71.45</v>
+        <v>0.71450000000000002</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2092,10 +2102,10 @@
         <v>20400</v>
       </c>
       <c r="C95">
-        <v>72.45</v>
+        <v>0.72450000000000003</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2106,10 +2116,10 @@
         <v>20600</v>
       </c>
       <c r="C96">
-        <v>73.44</v>
+        <v>0.73439999999999994</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2120,10 +2130,10 @@
         <v>20800</v>
       </c>
       <c r="C97">
-        <v>74.44</v>
+        <v>0.74439999999999995</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2134,10 +2144,10 @@
         <v>21000</v>
       </c>
       <c r="C98">
-        <v>75.44</v>
+        <v>0.75439999999999996</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2148,10 +2158,10 @@
         <v>21200</v>
       </c>
       <c r="C99">
-        <v>76.44</v>
+        <v>0.76439999999999997</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2162,10 +2172,10 @@
         <v>21400</v>
       </c>
       <c r="C100">
-        <v>77.430000000000007</v>
+        <v>0.7743000000000001</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2176,10 +2186,10 @@
         <v>21600</v>
       </c>
       <c r="C101">
-        <v>78.430000000000007</v>
+        <v>0.78430000000000011</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2190,10 +2200,10 @@
         <v>21800</v>
       </c>
       <c r="C102">
-        <v>79.430000000000007</v>
+        <v>0.79430000000000012</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2204,10 +2214,10 @@
         <v>22000</v>
       </c>
       <c r="C103">
-        <v>80.42</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2218,10 +2228,10 @@
         <v>22200</v>
       </c>
       <c r="C104">
-        <v>81.42</v>
+        <v>0.81420000000000003</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2232,10 +2242,10 @@
         <v>22400</v>
       </c>
       <c r="C105">
-        <v>82.42</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2246,10 +2256,10 @@
         <v>22600</v>
       </c>
       <c r="C106">
-        <v>83.41</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2260,10 +2270,10 @@
         <v>22800</v>
       </c>
       <c r="C107">
-        <v>84.41</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2274,10 +2284,10 @@
         <v>23000</v>
       </c>
       <c r="C108">
-        <v>85.41</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2288,10 +2298,10 @@
         <v>23200</v>
       </c>
       <c r="C109">
-        <v>86.41</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="D109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2302,10 +2312,10 @@
         <v>23400</v>
       </c>
       <c r="C110">
-        <v>87.4</v>
+        <v>0.87400000000000011</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2316,10 +2326,10 @@
         <v>23600</v>
       </c>
       <c r="C111">
-        <v>88.4</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2330,10 +2340,10 @@
         <v>23800</v>
       </c>
       <c r="C112">
-        <v>89.4</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2344,10 +2354,10 @@
         <v>24000</v>
       </c>
       <c r="C113">
-        <v>90.39</v>
+        <v>0.90390000000000004</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2358,10 +2368,10 @@
         <v>24200</v>
       </c>
       <c r="C114">
-        <v>91.39</v>
+        <v>0.91390000000000005</v>
       </c>
       <c r="D114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2372,10 +2382,10 @@
         <v>24400</v>
       </c>
       <c r="C115">
-        <v>92.39</v>
+        <v>0.92390000000000005</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2386,10 +2396,10 @@
         <v>24600</v>
       </c>
       <c r="C116">
-        <v>93.39</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2400,10 +2410,10 @@
         <v>24800</v>
       </c>
       <c r="C117">
-        <v>94.38</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2414,10 +2424,10 @@
         <v>25000</v>
       </c>
       <c r="C118">
-        <v>95.38</v>
+        <v>0.95379999999999998</v>
       </c>
       <c r="D118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2428,10 +2438,10 @@
         <v>25200</v>
       </c>
       <c r="C119">
-        <v>96.38</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2442,10 +2452,10 @@
         <v>25400</v>
       </c>
       <c r="C120">
-        <v>97.37</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="D120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2456,10 +2466,10 @@
         <v>25600</v>
       </c>
       <c r="C121">
-        <v>98.37</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="D121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2470,10 +2480,10 @@
         <v>25800</v>
       </c>
       <c r="C122">
-        <v>99.37</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="D122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2484,10 +2494,10 @@
         <v>26000</v>
       </c>
       <c r="C123">
-        <v>100.36</v>
+        <v>1.0036</v>
       </c>
       <c r="D123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2498,10 +2508,10 @@
         <v>26200</v>
       </c>
       <c r="C124">
-        <v>101.36</v>
+        <v>1.0136000000000001</v>
       </c>
       <c r="D124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2512,10 +2522,10 @@
         <v>26400</v>
       </c>
       <c r="C125">
-        <v>102.36</v>
+        <v>1.0236000000000001</v>
       </c>
       <c r="D125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2526,10 +2536,10 @@
         <v>26600</v>
       </c>
       <c r="C126">
-        <v>103.36</v>
+        <v>1.0336000000000001</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2540,10 +2550,10 @@
         <v>26800</v>
       </c>
       <c r="C127">
-        <v>104.35</v>
+        <v>1.0434999999999999</v>
       </c>
       <c r="D127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2554,10 +2564,10 @@
         <v>27000</v>
       </c>
       <c r="C128">
-        <v>105.35</v>
+        <v>1.0534999999999999</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2568,10 +2578,10 @@
         <v>27200</v>
       </c>
       <c r="C129">
-        <v>106.35</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2582,10 +2592,10 @@
         <v>27400</v>
       </c>
       <c r="C130">
-        <v>107.34</v>
+        <v>1.0734000000000001</v>
       </c>
       <c r="D130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2596,10 +2606,10 @@
         <v>27600</v>
       </c>
       <c r="C131">
-        <v>108.34</v>
+        <v>1.0834000000000001</v>
       </c>
       <c r="D131" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2610,10 +2620,10 @@
         <v>27800</v>
       </c>
       <c r="C132">
-        <v>109.34</v>
+        <v>1.0933999999999999</v>
       </c>
       <c r="D132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2624,10 +2634,10 @@
         <v>28000</v>
       </c>
       <c r="C133">
-        <v>110.34</v>
+        <v>1.1033999999999999</v>
       </c>
       <c r="D133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2638,10 +2648,10 @@
         <v>28200</v>
       </c>
       <c r="C134">
-        <v>111.33</v>
+        <v>1.1133</v>
       </c>
       <c r="D134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2652,10 +2662,10 @@
         <v>28400</v>
       </c>
       <c r="C135">
-        <v>112.33</v>
+        <v>1.1233</v>
       </c>
       <c r="D135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2666,10 +2676,10 @@
         <v>28600</v>
       </c>
       <c r="C136">
-        <v>113.33</v>
+        <v>1.1333</v>
       </c>
       <c r="D136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2680,10 +2690,10 @@
         <v>28800</v>
       </c>
       <c r="C137">
-        <v>114.32</v>
+        <v>1.1432</v>
       </c>
       <c r="D137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2694,10 +2704,10 @@
         <v>29000</v>
       </c>
       <c r="C138">
-        <v>115.32</v>
+        <v>1.1532</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2708,10 +2718,10 @@
         <v>29200</v>
       </c>
       <c r="C139">
-        <v>116.32</v>
+        <v>1.1632</v>
       </c>
       <c r="D139" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2722,10 +2732,10 @@
         <v>29400</v>
       </c>
       <c r="C140">
-        <v>117.31</v>
+        <v>1.1731</v>
       </c>
       <c r="D140" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2736,10 +2746,10 @@
         <v>29600</v>
       </c>
       <c r="C141">
-        <v>118.31</v>
+        <v>1.1831</v>
       </c>
       <c r="D141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2750,10 +2760,10 @@
         <v>29800</v>
       </c>
       <c r="C142">
-        <v>119.31</v>
+        <v>1.1931</v>
       </c>
       <c r="D142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2764,10 +2774,10 @@
         <v>30000</v>
       </c>
       <c r="C143">
-        <v>120.31</v>
+        <v>1.2031000000000001</v>
       </c>
       <c r="D143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2778,10 +2788,10 @@
         <v>30200</v>
       </c>
       <c r="C144">
-        <v>121.3</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="D144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2792,10 +2802,10 @@
         <v>30400</v>
       </c>
       <c r="C145">
-        <v>122.3</v>
+        <v>1.2229999999999999</v>
       </c>
       <c r="D145" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2806,10 +2816,10 @@
         <v>30600</v>
       </c>
       <c r="C146">
-        <v>123.3</v>
+        <v>1.2329999999999999</v>
       </c>
       <c r="D146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2820,10 +2830,10 @@
         <v>30800</v>
       </c>
       <c r="C147">
-        <v>124.29</v>
+        <v>1.2429000000000001</v>
       </c>
       <c r="D147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2834,10 +2844,10 @@
         <v>31000</v>
       </c>
       <c r="C148">
-        <v>125.29</v>
+        <v>1.2529000000000001</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2848,10 +2858,10 @@
         <v>31200</v>
       </c>
       <c r="C149">
-        <v>126.29</v>
+        <v>1.2629000000000001</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2862,10 +2872,10 @@
         <v>31400</v>
       </c>
       <c r="C150">
-        <v>127.29</v>
+        <v>1.2729000000000001</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2876,10 +2886,10 @@
         <v>31600</v>
       </c>
       <c r="C151">
-        <v>128.28</v>
+        <v>1.2827999999999999</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2890,10 +2900,10 @@
         <v>31800</v>
       </c>
       <c r="C152">
-        <v>129.28</v>
+        <v>1.2927999999999999</v>
       </c>
       <c r="D152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2904,10 +2914,10 @@
         <v>32000</v>
       </c>
       <c r="C153">
-        <v>130.28</v>
+        <v>1.3028</v>
       </c>
       <c r="D153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2918,10 +2928,10 @@
         <v>32200</v>
       </c>
       <c r="C154">
-        <v>131.27000000000001</v>
+        <v>1.3127000000000002</v>
       </c>
       <c r="D154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2932,10 +2942,10 @@
         <v>32400</v>
       </c>
       <c r="C155">
-        <v>132.27000000000001</v>
+        <v>1.3227000000000002</v>
       </c>
       <c r="D155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2946,10 +2956,10 @@
         <v>32600</v>
       </c>
       <c r="C156">
-        <v>133.27000000000001</v>
+        <v>1.3327</v>
       </c>
       <c r="D156" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2960,10 +2970,10 @@
         <v>32800</v>
       </c>
       <c r="C157">
-        <v>134.26</v>
+        <v>1.3426</v>
       </c>
       <c r="D157" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2974,10 +2984,10 @@
         <v>33000</v>
       </c>
       <c r="C158">
-        <v>135.26</v>
+        <v>1.3525999999999998</v>
       </c>
       <c r="D158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2988,10 +2998,10 @@
         <v>33200</v>
       </c>
       <c r="C159">
-        <v>136.26</v>
+        <v>1.3625999999999998</v>
       </c>
       <c r="D159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3002,10 +3012,10 @@
         <v>33400</v>
       </c>
       <c r="C160">
-        <v>137.26</v>
+        <v>1.3725999999999998</v>
       </c>
       <c r="D160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3016,10 +3026,10 @@
         <v>33600</v>
       </c>
       <c r="C161">
-        <v>138.25</v>
+        <v>1.3825000000000001</v>
       </c>
       <c r="D161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3030,10 +3040,10 @@
         <v>33800</v>
       </c>
       <c r="C162">
-        <v>139.25</v>
+        <v>1.3925000000000001</v>
       </c>
       <c r="D162" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3044,10 +3054,10 @@
         <v>34000</v>
       </c>
       <c r="C163">
-        <v>140.25</v>
+        <v>1.4025000000000001</v>
       </c>
       <c r="D163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3058,10 +3068,10 @@
         <v>34200</v>
       </c>
       <c r="C164">
-        <v>141.24</v>
+        <v>1.4124000000000001</v>
       </c>
       <c r="D164" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3072,10 +3082,10 @@
         <v>34400</v>
       </c>
       <c r="C165">
-        <v>142.24</v>
+        <v>1.4224000000000001</v>
       </c>
       <c r="D165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3086,10 +3096,10 @@
         <v>34600</v>
       </c>
       <c r="C166">
-        <v>143.24</v>
+        <v>1.4324000000000001</v>
       </c>
       <c r="D166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3100,10 +3110,10 @@
         <v>34800</v>
       </c>
       <c r="C167">
-        <v>144.24</v>
+        <v>1.4424000000000001</v>
       </c>
       <c r="D167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3114,10 +3124,10 @@
         <v>35000</v>
       </c>
       <c r="C168">
-        <v>145.22999999999999</v>
+        <v>1.4522999999999999</v>
       </c>
       <c r="D168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3128,10 +3138,10 @@
         <v>35200</v>
       </c>
       <c r="C169">
-        <v>146.22999999999999</v>
+        <v>1.4622999999999999</v>
       </c>
       <c r="D169" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3142,10 +3152,10 @@
         <v>35400</v>
       </c>
       <c r="C170">
-        <v>147.22999999999999</v>
+        <v>1.4722999999999999</v>
       </c>
       <c r="D170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3156,10 +3166,10 @@
         <v>35600</v>
       </c>
       <c r="C171">
-        <v>148.22</v>
+        <v>1.4822</v>
       </c>
       <c r="D171" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3170,10 +3180,10 @@
         <v>35800</v>
       </c>
       <c r="C172">
-        <v>149.22</v>
+        <v>1.4922</v>
       </c>
       <c r="D172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3184,10 +3194,10 @@
         <v>36000</v>
       </c>
       <c r="C173">
-        <v>150.22</v>
+        <v>1.5022</v>
       </c>
       <c r="D173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3198,10 +3208,10 @@
         <v>36200</v>
       </c>
       <c r="C174">
-        <v>151.21</v>
+        <v>1.5121</v>
       </c>
       <c r="D174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3212,10 +3222,10 @@
         <v>36400</v>
       </c>
       <c r="C175">
-        <v>152.21</v>
+        <v>1.5221</v>
       </c>
       <c r="D175" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3226,10 +3236,10 @@
         <v>36600</v>
       </c>
       <c r="C176">
-        <v>153.21</v>
+        <v>1.5321</v>
       </c>
       <c r="D176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3240,10 +3250,10 @@
         <v>36800</v>
       </c>
       <c r="C177">
-        <v>154.21</v>
+        <v>1.5421</v>
       </c>
       <c r="D177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3254,10 +3264,10 @@
         <v>37000</v>
       </c>
       <c r="C178">
-        <v>155.19999999999999</v>
+        <v>1.5519999999999998</v>
       </c>
       <c r="D178" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3268,10 +3278,10 @@
         <v>37200</v>
       </c>
       <c r="C179">
-        <v>156.19999999999999</v>
+        <v>1.5619999999999998</v>
       </c>
       <c r="D179" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3282,10 +3292,10 @@
         <v>37400</v>
       </c>
       <c r="C180">
-        <v>157.19999999999999</v>
+        <v>1.5719999999999998</v>
       </c>
       <c r="D180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3296,10 +3306,10 @@
         <v>37600</v>
       </c>
       <c r="C181">
-        <v>158.19</v>
+        <v>1.5819000000000001</v>
       </c>
       <c r="D181" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3310,10 +3320,10 @@
         <v>37800</v>
       </c>
       <c r="C182">
-        <v>159.19</v>
+        <v>1.5918999999999999</v>
       </c>
       <c r="D182" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3324,10 +3334,10 @@
         <v>38000</v>
       </c>
       <c r="C183">
-        <v>160.19</v>
+        <v>1.6018999999999999</v>
       </c>
       <c r="D183" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3338,10 +3348,10 @@
         <v>38200</v>
       </c>
       <c r="C184">
-        <v>161.19</v>
+        <v>1.6118999999999999</v>
       </c>
       <c r="D184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3352,10 +3362,10 @@
         <v>38400</v>
       </c>
       <c r="C185">
-        <v>162.18</v>
+        <v>1.6218000000000001</v>
       </c>
       <c r="D185" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3366,10 +3376,10 @@
         <v>38600</v>
       </c>
       <c r="C186">
-        <v>163.18</v>
+        <v>1.6318000000000001</v>
       </c>
       <c r="D186" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3380,10 +3390,10 @@
         <v>38800</v>
       </c>
       <c r="C187">
-        <v>164.18</v>
+        <v>1.6418000000000001</v>
       </c>
       <c r="D187" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3394,10 +3404,10 @@
         <v>39000</v>
       </c>
       <c r="C188">
-        <v>165.17</v>
+        <v>1.6516999999999999</v>
       </c>
       <c r="D188" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3408,10 +3418,10 @@
         <v>39200</v>
       </c>
       <c r="C189">
-        <v>166.17</v>
+        <v>1.6617</v>
       </c>
       <c r="D189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3422,10 +3432,10 @@
         <v>39400</v>
       </c>
       <c r="C190">
-        <v>167.17</v>
+        <v>1.6717</v>
       </c>
       <c r="D190" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3436,10 +3446,10 @@
         <v>39600</v>
       </c>
       <c r="C191">
-        <v>168.16</v>
+        <v>1.6816</v>
       </c>
       <c r="D191" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3450,10 +3460,10 @@
         <v>39800</v>
       </c>
       <c r="C192">
-        <v>169.16</v>
+        <v>1.6916</v>
       </c>
       <c r="D192" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3464,10 +3474,10 @@
         <v>40000</v>
       </c>
       <c r="C193">
-        <v>170.16</v>
+        <v>1.7016</v>
       </c>
       <c r="D193" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3478,10 +3488,10 @@
         <v>40200</v>
       </c>
       <c r="C194">
-        <v>171.16</v>
+        <v>1.7116</v>
       </c>
       <c r="D194" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3492,10 +3502,10 @@
         <v>40400</v>
       </c>
       <c r="C195">
-        <v>172.15</v>
+        <v>1.7215</v>
       </c>
       <c r="D195" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3506,10 +3516,10 @@
         <v>40600</v>
       </c>
       <c r="C196">
-        <v>173.15</v>
+        <v>1.7315</v>
       </c>
       <c r="D196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3520,10 +3530,10 @@
         <v>40800</v>
       </c>
       <c r="C197">
-        <v>174.15</v>
+        <v>1.7415</v>
       </c>
       <c r="D197" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3534,10 +3544,10 @@
         <v>41000</v>
       </c>
       <c r="C198">
-        <v>175.14</v>
+        <v>1.7513999999999998</v>
       </c>
       <c r="D198" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3548,10 +3558,10 @@
         <v>41200</v>
       </c>
       <c r="C199">
-        <v>176.14</v>
+        <v>1.7613999999999999</v>
       </c>
       <c r="D199" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3562,10 +3572,10 @@
         <v>41400</v>
       </c>
       <c r="C200">
-        <v>177.14</v>
+        <v>1.7713999999999999</v>
       </c>
       <c r="D200" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3576,10 +3586,10 @@
         <v>41600</v>
       </c>
       <c r="C201">
-        <v>178.14</v>
+        <v>1.7813999999999999</v>
       </c>
       <c r="D201" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3590,10 +3600,10 @@
         <v>41800</v>
       </c>
       <c r="C202">
-        <v>179.13</v>
+        <v>1.7912999999999999</v>
       </c>
       <c r="D202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3604,10 +3614,10 @@
         <v>42000</v>
       </c>
       <c r="C203">
-        <v>180.13</v>
+        <v>1.8012999999999999</v>
       </c>
       <c r="D203" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3618,10 +3628,10 @@
         <v>42200</v>
       </c>
       <c r="C204">
-        <v>181.13</v>
+        <v>1.8112999999999999</v>
       </c>
       <c r="D204" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3632,10 +3642,10 @@
         <v>42400</v>
       </c>
       <c r="C205">
-        <v>182.12</v>
+        <v>1.8212000000000002</v>
       </c>
       <c r="D205" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3646,10 +3656,10 @@
         <v>42600</v>
       </c>
       <c r="C206">
-        <v>183.12</v>
+        <v>1.8311999999999999</v>
       </c>
       <c r="D206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3660,10 +3670,10 @@
         <v>42800</v>
       </c>
       <c r="C207">
-        <v>184.12</v>
+        <v>1.8411999999999999</v>
       </c>
       <c r="D207" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3674,10 +3684,10 @@
         <v>43000</v>
       </c>
       <c r="C208">
-        <v>185.11</v>
+        <v>1.8511000000000002</v>
       </c>
       <c r="D208" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3688,10 +3698,10 @@
         <v>43200</v>
       </c>
       <c r="C209">
-        <v>186.11</v>
+        <v>1.8611000000000002</v>
       </c>
       <c r="D209" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3702,10 +3712,10 @@
         <v>43400</v>
       </c>
       <c r="C210">
-        <v>187.11</v>
+        <v>1.8711000000000002</v>
       </c>
       <c r="D210" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3716,10 +3726,10 @@
         <v>43600</v>
       </c>
       <c r="C211">
-        <v>188.11</v>
+        <v>1.8811000000000002</v>
       </c>
       <c r="D211" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3730,10 +3740,10 @@
         <v>43800</v>
       </c>
       <c r="C212">
-        <v>189.1</v>
+        <v>1.891</v>
       </c>
       <c r="D212" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3744,10 +3754,10 @@
         <v>44000</v>
       </c>
       <c r="C213">
-        <v>190.1</v>
+        <v>1.901</v>
       </c>
       <c r="D213" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3758,10 +3768,10 @@
         <v>44200</v>
       </c>
       <c r="C214">
-        <v>191.1</v>
+        <v>1.911</v>
       </c>
       <c r="D214" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3772,10 +3782,10 @@
         <v>44400</v>
       </c>
       <c r="C215">
-        <v>192.09</v>
+        <v>1.9209000000000001</v>
       </c>
       <c r="D215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3786,10 +3796,10 @@
         <v>44600</v>
       </c>
       <c r="C216">
-        <v>193.09</v>
+        <v>1.9309000000000001</v>
       </c>
       <c r="D216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3800,10 +3810,10 @@
         <v>44800</v>
       </c>
       <c r="C217">
-        <v>194.09</v>
+        <v>1.9409000000000001</v>
       </c>
       <c r="D217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3814,10 +3824,10 @@
         <v>45000</v>
       </c>
       <c r="C218">
-        <v>195.09</v>
+        <v>1.9509000000000001</v>
       </c>
       <c r="D218" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3828,10 +3838,10 @@
         <v>45200</v>
       </c>
       <c r="C219">
-        <v>196.08</v>
+        <v>1.9608000000000001</v>
       </c>
       <c r="D219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3842,10 +3852,10 @@
         <v>45400</v>
       </c>
       <c r="C220">
-        <v>197.08</v>
+        <v>1.9708000000000001</v>
       </c>
       <c r="D220" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3856,10 +3866,10 @@
         <v>45600</v>
       </c>
       <c r="C221">
-        <v>198.08</v>
+        <v>1.9808000000000001</v>
       </c>
       <c r="D221" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3870,10 +3880,10 @@
         <v>45800</v>
       </c>
       <c r="C222">
-        <v>199.07</v>
+        <v>1.9906999999999999</v>
       </c>
       <c r="D222" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3884,10 +3894,10 @@
         <v>46000</v>
       </c>
       <c r="C223">
-        <v>200.07</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="D223" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3898,10 +3908,10 @@
         <v>46200</v>
       </c>
       <c r="C224">
-        <v>201.07</v>
+        <v>2.0106999999999999</v>
       </c>
       <c r="D224" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3912,10 +3922,10 @@
         <v>46400</v>
       </c>
       <c r="C225">
-        <v>202.06</v>
+        <v>2.0206</v>
       </c>
       <c r="D225" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3926,10 +3936,10 @@
         <v>46600</v>
       </c>
       <c r="C226">
-        <v>203.06</v>
+        <v>2.0306000000000002</v>
       </c>
       <c r="D226" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3940,10 +3950,10 @@
         <v>46800</v>
       </c>
       <c r="C227">
-        <v>204.06</v>
+        <v>2.0406</v>
       </c>
       <c r="D227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3954,10 +3964,10 @@
         <v>47000</v>
       </c>
       <c r="C228">
-        <v>205.06</v>
+        <v>2.0506000000000002</v>
       </c>
       <c r="D228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3968,10 +3978,10 @@
         <v>47200</v>
       </c>
       <c r="C229">
-        <v>206.05</v>
+        <v>2.0605000000000002</v>
       </c>
       <c r="D229" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3982,10 +3992,10 @@
         <v>47400</v>
       </c>
       <c r="C230">
-        <v>207.05</v>
+        <v>2.0705</v>
       </c>
       <c r="D230" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3996,10 +4006,10 @@
         <v>47600</v>
       </c>
       <c r="C231">
-        <v>208.05</v>
+        <v>2.0805000000000002</v>
       </c>
       <c r="D231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4010,10 +4020,10 @@
         <v>47800</v>
       </c>
       <c r="C232">
-        <v>209.04</v>
+        <v>2.0903999999999998</v>
       </c>
       <c r="D232" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4024,10 +4034,10 @@
         <v>48000</v>
       </c>
       <c r="C233">
-        <v>210.04</v>
+        <v>2.1004</v>
       </c>
       <c r="D233" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4038,10 +4048,10 @@
         <v>48200</v>
       </c>
       <c r="C234">
-        <v>211.04</v>
+        <v>2.1103999999999998</v>
       </c>
       <c r="D234" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4052,10 +4062,10 @@
         <v>48400</v>
       </c>
       <c r="C235">
-        <v>212.04</v>
+        <v>2.1204000000000001</v>
       </c>
       <c r="D235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4066,10 +4076,10 @@
         <v>48600</v>
       </c>
       <c r="C236">
-        <v>213.03</v>
+        <v>2.1303000000000001</v>
       </c>
       <c r="D236" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4080,10 +4090,10 @@
         <v>48800</v>
       </c>
       <c r="C237">
-        <v>214.03</v>
+        <v>2.1402999999999999</v>
       </c>
       <c r="D237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4094,10 +4104,10 @@
         <v>49000</v>
       </c>
       <c r="C238">
-        <v>215.03</v>
+        <v>2.1503000000000001</v>
       </c>
       <c r="D238" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4108,10 +4118,10 @@
         <v>49200</v>
       </c>
       <c r="C239">
-        <v>216.02</v>
+        <v>2.1602000000000001</v>
       </c>
       <c r="D239" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4122,10 +4132,10 @@
         <v>49400</v>
       </c>
       <c r="C240">
-        <v>217.02</v>
+        <v>2.1701999999999999</v>
       </c>
       <c r="D240" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4136,10 +4146,10 @@
         <v>49600</v>
       </c>
       <c r="C241">
-        <v>218.02</v>
+        <v>2.1802000000000001</v>
       </c>
       <c r="D241" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4150,10 +4160,10 @@
         <v>49800</v>
       </c>
       <c r="C242">
-        <v>219.01</v>
+        <v>2.1900999999999997</v>
       </c>
       <c r="D242" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4164,10 +4174,10 @@
         <v>50000</v>
       </c>
       <c r="C243">
-        <v>220.01</v>
+        <v>2.2000999999999999</v>
       </c>
       <c r="D243" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4178,10 +4188,10 @@
         <v>50200</v>
       </c>
       <c r="C244">
-        <v>221.01</v>
+        <v>2.2100999999999997</v>
       </c>
       <c r="D244" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4192,10 +4202,10 @@
         <v>50400</v>
       </c>
       <c r="C245">
-        <v>222.01</v>
+        <v>2.2201</v>
       </c>
       <c r="D245" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4206,10 +4216,10 @@
         <v>50600</v>
       </c>
       <c r="C246">
-        <v>223</v>
+        <v>2.23</v>
       </c>
       <c r="D246" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4220,10 +4230,10 @@
         <v>50800</v>
       </c>
       <c r="C247">
-        <v>224</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D247" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4234,10 +4244,10 @@
         <v>51000</v>
       </c>
       <c r="C248">
-        <v>225</v>
+        <v>2.25</v>
       </c>
       <c r="D248" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4248,10 +4258,10 @@
         <v>51200</v>
       </c>
       <c r="C249">
-        <v>225.99</v>
+        <v>2.2599</v>
       </c>
       <c r="D249" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4262,10 +4272,10 @@
         <v>51400</v>
       </c>
       <c r="C250">
-        <v>226.99</v>
+        <v>2.2699000000000003</v>
       </c>
       <c r="D250" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4276,10 +4286,10 @@
         <v>51600</v>
       </c>
       <c r="C251">
-        <v>227.99</v>
+        <v>2.2799</v>
       </c>
       <c r="D251" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4290,10 +4300,10 @@
         <v>51800</v>
       </c>
       <c r="C252">
-        <v>228.99</v>
+        <v>2.2899000000000003</v>
       </c>
       <c r="D252" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4304,10 +4314,10 @@
         <v>52000</v>
       </c>
       <c r="C253">
-        <v>229.98</v>
+        <v>2.2997999999999998</v>
       </c>
       <c r="D253" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4318,10 +4328,10 @@
         <v>52200</v>
       </c>
       <c r="C254">
-        <v>230.98</v>
+        <v>2.3098000000000001</v>
       </c>
       <c r="D254" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4332,10 +4342,10 @@
         <v>52400</v>
       </c>
       <c r="C255">
-        <v>231.98</v>
+        <v>2.3197999999999999</v>
       </c>
       <c r="D255" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4346,10 +4356,10 @@
         <v>52600</v>
       </c>
       <c r="C256">
-        <v>232.97</v>
+        <v>2.3296999999999999</v>
       </c>
       <c r="D256" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4360,10 +4370,10 @@
         <v>52800</v>
       </c>
       <c r="C257">
-        <v>233.97</v>
+        <v>2.3397000000000001</v>
       </c>
       <c r="D257" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4374,10 +4384,10 @@
         <v>53000</v>
       </c>
       <c r="C258">
-        <v>234.97</v>
+        <v>2.3496999999999999</v>
       </c>
       <c r="D258" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4388,10 +4398,10 @@
         <v>53200</v>
       </c>
       <c r="C259">
-        <v>235.96</v>
+        <v>2.3595999999999999</v>
       </c>
       <c r="D259" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4402,10 +4412,10 @@
         <v>53400</v>
       </c>
       <c r="C260">
-        <v>236.96</v>
+        <v>2.3696000000000002</v>
       </c>
       <c r="D260" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4416,10 +4426,10 @@
         <v>53600</v>
       </c>
       <c r="C261">
-        <v>237.96</v>
+        <v>2.3795999999999999</v>
       </c>
       <c r="D261" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4430,10 +4440,10 @@
         <v>53800</v>
       </c>
       <c r="C262">
-        <v>238.96</v>
+        <v>2.3896000000000002</v>
       </c>
       <c r="D262" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4444,10 +4454,10 @@
         <v>54000</v>
       </c>
       <c r="C263">
-        <v>239.95</v>
+        <v>2.3994999999999997</v>
       </c>
       <c r="D263" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4458,10 +4468,10 @@
         <v>54200</v>
       </c>
       <c r="C264">
-        <v>240.95</v>
+        <v>2.4095</v>
       </c>
       <c r="D264" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4472,10 +4482,10 @@
         <v>54400</v>
       </c>
       <c r="C265">
-        <v>241.95</v>
+        <v>2.4194999999999998</v>
       </c>
       <c r="D265" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4486,10 +4496,10 @@
         <v>54600</v>
       </c>
       <c r="C266">
-        <v>242.94</v>
+        <v>2.4293999999999998</v>
       </c>
       <c r="D266" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4500,10 +4510,10 @@
         <v>54800</v>
       </c>
       <c r="C267">
-        <v>243.94</v>
+        <v>2.4394</v>
       </c>
       <c r="D267" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4514,10 +4524,10 @@
         <v>55000</v>
       </c>
       <c r="C268">
-        <v>244.94</v>
+        <v>2.4493999999999998</v>
       </c>
       <c r="D268" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4528,10 +4538,10 @@
         <v>55200</v>
       </c>
       <c r="C269">
-        <v>245.94</v>
+        <v>2.4594</v>
       </c>
       <c r="D269" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4542,10 +4552,10 @@
         <v>55400</v>
       </c>
       <c r="C270">
-        <v>246.93</v>
+        <v>2.4693000000000001</v>
       </c>
       <c r="D270" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4556,10 +4566,10 @@
         <v>55600</v>
       </c>
       <c r="C271">
-        <v>247.93</v>
+        <v>2.4793000000000003</v>
       </c>
       <c r="D271" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4570,10 +4580,10 @@
         <v>55800</v>
       </c>
       <c r="C272">
-        <v>248.93</v>
+        <v>2.4893000000000001</v>
       </c>
       <c r="D272" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4584,10 +4594,10 @@
         <v>56000</v>
       </c>
       <c r="C273">
-        <v>249.92</v>
+        <v>2.4992000000000001</v>
       </c>
       <c r="D273" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4598,10 +4608,10 @@
         <v>56200</v>
       </c>
       <c r="C274">
-        <v>250.92</v>
+        <v>2.5091999999999999</v>
       </c>
       <c r="D274" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4612,10 +4622,10 @@
         <v>56400</v>
       </c>
       <c r="C275">
-        <v>251.92</v>
+        <v>2.5191999999999997</v>
       </c>
       <c r="D275" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4626,10 +4636,10 @@
         <v>56600</v>
       </c>
       <c r="C276">
-        <v>252.91</v>
+        <v>2.5291000000000001</v>
       </c>
       <c r="D276" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4640,10 +4650,10 @@
         <v>56800</v>
       </c>
       <c r="C277">
-        <v>253.91</v>
+        <v>2.5390999999999999</v>
       </c>
       <c r="D277" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4654,10 +4664,10 @@
         <v>57000</v>
       </c>
       <c r="C278">
-        <v>254.91</v>
+        <v>2.5491000000000001</v>
       </c>
       <c r="D278" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4668,10 +4678,10 @@
         <v>57200</v>
       </c>
       <c r="C279">
-        <v>255.91</v>
+        <v>2.5590999999999999</v>
       </c>
       <c r="D279" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4682,10 +4692,10 @@
         <v>57400</v>
       </c>
       <c r="C280">
-        <v>256.89999999999998</v>
+        <v>2.569</v>
       </c>
       <c r="D280" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4696,10 +4706,10 @@
         <v>57600</v>
       </c>
       <c r="C281">
-        <v>257.89999999999998</v>
+        <v>2.5789999999999997</v>
       </c>
       <c r="D281" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4710,10 +4720,10 @@
         <v>57800</v>
       </c>
       <c r="C282">
-        <v>258.89999999999998</v>
+        <v>2.589</v>
       </c>
       <c r="D282" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4724,10 +4734,10 @@
         <v>58000</v>
       </c>
       <c r="C283">
-        <v>259.89</v>
+        <v>2.5989</v>
       </c>
       <c r="D283" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4738,10 +4748,10 @@
         <v>58200</v>
       </c>
       <c r="C284">
-        <v>260.89</v>
+        <v>2.6088999999999998</v>
       </c>
       <c r="D284" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4752,10 +4762,10 @@
         <v>58400</v>
       </c>
       <c r="C285">
-        <v>261.89</v>
+        <v>2.6189</v>
       </c>
       <c r="D285" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4766,10 +4776,10 @@
         <v>58600</v>
       </c>
       <c r="C286">
-        <v>262.89</v>
+        <v>2.6288999999999998</v>
       </c>
       <c r="D286" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4780,10 +4790,10 @@
         <v>58800</v>
       </c>
       <c r="C287">
-        <v>263.88</v>
+        <v>2.6387999999999998</v>
       </c>
       <c r="D287" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4794,10 +4804,10 @@
         <v>59000</v>
       </c>
       <c r="C288">
-        <v>264.88</v>
+        <v>2.6488</v>
       </c>
       <c r="D288" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4808,10 +4818,10 @@
         <v>59200</v>
       </c>
       <c r="C289">
-        <v>265.88</v>
+        <v>2.6587999999999998</v>
       </c>
       <c r="D289" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4822,10 +4832,10 @@
         <v>59400</v>
       </c>
       <c r="C290">
-        <v>266.87</v>
+        <v>2.6686999999999999</v>
       </c>
       <c r="D290" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4836,10 +4846,10 @@
         <v>59600</v>
       </c>
       <c r="C291">
-        <v>267.87</v>
+        <v>2.6787000000000001</v>
       </c>
       <c r="D291" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4850,10 +4860,10 @@
         <v>59800</v>
       </c>
       <c r="C292">
-        <v>268.87</v>
+        <v>2.6886999999999999</v>
       </c>
       <c r="D292" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4864,10 +4874,10 @@
         <v>60000</v>
       </c>
       <c r="C293">
-        <v>269.86</v>
+        <v>2.6986000000000003</v>
       </c>
       <c r="D293" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4878,10 +4888,10 @@
         <v>60200</v>
       </c>
       <c r="C294">
-        <v>270.86</v>
+        <v>2.7086000000000001</v>
       </c>
       <c r="D294" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4892,10 +4902,10 @@
         <v>60400</v>
       </c>
       <c r="C295">
-        <v>271.86</v>
+        <v>2.7186000000000003</v>
       </c>
       <c r="D295" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4906,10 +4916,10 @@
         <v>60600</v>
       </c>
       <c r="C296">
-        <v>272.86</v>
+        <v>2.7286000000000001</v>
       </c>
       <c r="D296" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4920,10 +4930,10 @@
         <v>60800</v>
       </c>
       <c r="C297">
-        <v>273.85000000000002</v>
+        <v>2.7385000000000002</v>
       </c>
       <c r="D297" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4934,10 +4944,10 @@
         <v>61000</v>
       </c>
       <c r="C298">
-        <v>274.85000000000002</v>
+        <v>2.7485000000000004</v>
       </c>
       <c r="D298" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4948,10 +4958,10 @@
         <v>61200</v>
       </c>
       <c r="C299">
-        <v>275.85000000000002</v>
+        <v>2.7585000000000002</v>
       </c>
       <c r="D299" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4962,10 +4972,10 @@
         <v>61400</v>
       </c>
       <c r="C300">
-        <v>276.83999999999997</v>
+        <v>2.7683999999999997</v>
       </c>
       <c r="D300" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4976,10 +4986,10 @@
         <v>61600</v>
       </c>
       <c r="C301">
-        <v>277.83999999999997</v>
+        <v>2.7783999999999995</v>
       </c>
       <c r="D301" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4990,10 +5000,10 @@
         <v>61800</v>
       </c>
       <c r="C302">
-        <v>278.83999999999997</v>
+        <v>2.7883999999999998</v>
       </c>
       <c r="D302" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5004,10 +5014,10 @@
         <v>62000</v>
       </c>
       <c r="C303">
-        <v>279.83999999999997</v>
+        <v>2.7983999999999996</v>
       </c>
       <c r="D303" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5018,10 +5028,10 @@
         <v>62200</v>
       </c>
       <c r="C304">
-        <v>280.83</v>
+        <v>2.8083</v>
       </c>
       <c r="D304" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5032,10 +5042,10 @@
         <v>62400</v>
       </c>
       <c r="C305">
-        <v>281.83</v>
+        <v>2.8182999999999998</v>
       </c>
       <c r="D305" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5046,10 +5056,10 @@
         <v>62600</v>
       </c>
       <c r="C306">
-        <v>282.83</v>
+        <v>2.8283</v>
       </c>
       <c r="D306" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5060,10 +5070,10 @@
         <v>62800</v>
       </c>
       <c r="C307">
-        <v>283.82</v>
+        <v>2.8382000000000001</v>
       </c>
       <c r="D307" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5074,10 +5084,10 @@
         <v>63000</v>
       </c>
       <c r="C308">
-        <v>284.82</v>
+        <v>2.8481999999999998</v>
       </c>
       <c r="D308" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5088,10 +5098,10 @@
         <v>63200</v>
       </c>
       <c r="C309">
-        <v>285.82</v>
+        <v>2.8582000000000001</v>
       </c>
       <c r="D309" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5102,10 +5112,10 @@
         <v>63400</v>
       </c>
       <c r="C310">
-        <v>286.81</v>
+        <v>2.8681000000000001</v>
       </c>
       <c r="D310" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5116,10 +5126,10 @@
         <v>63600</v>
       </c>
       <c r="C311">
-        <v>287.81</v>
+        <v>2.8780999999999999</v>
       </c>
       <c r="D311" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5130,10 +5140,10 @@
         <v>63800</v>
       </c>
       <c r="C312">
-        <v>288.81</v>
+        <v>2.8881000000000001</v>
       </c>
       <c r="D312" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5144,10 +5154,10 @@
         <v>64000</v>
       </c>
       <c r="C313">
-        <v>289.81</v>
+        <v>2.8980999999999999</v>
       </c>
       <c r="D313" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5158,10 +5168,10 @@
         <v>64200</v>
       </c>
       <c r="C314">
-        <v>290.8</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="D314" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5172,10 +5182,10 @@
         <v>64400</v>
       </c>
       <c r="C315">
-        <v>291.8</v>
+        <v>2.9180000000000001</v>
       </c>
       <c r="D315" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5186,10 +5196,10 @@
         <v>64600</v>
       </c>
       <c r="C316">
-        <v>292.45</v>
+        <v>2.9245000000000001</v>
       </c>
       <c r="D316" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5200,10 +5210,10 @@
         <v>64800</v>
       </c>
       <c r="C317">
-        <v>293.11</v>
+        <v>2.9311000000000003</v>
       </c>
       <c r="D317" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5214,10 +5224,10 @@
         <v>65000</v>
       </c>
       <c r="C318">
-        <v>293.76</v>
+        <v>2.9375999999999998</v>
       </c>
       <c r="D318" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5228,10 +5238,10 @@
         <v>65200</v>
       </c>
       <c r="C319">
-        <v>294.42</v>
+        <v>2.9442000000000004</v>
       </c>
       <c r="D319" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5242,10 +5252,10 @@
         <v>65400</v>
       </c>
       <c r="C320">
-        <v>295.07</v>
+        <v>2.9506999999999999</v>
       </c>
       <c r="D320" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5256,10 +5266,10 @@
         <v>65600</v>
       </c>
       <c r="C321">
-        <v>295.73</v>
+        <v>2.9573</v>
       </c>
       <c r="D321" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5270,10 +5280,10 @@
         <v>65800</v>
       </c>
       <c r="C322">
-        <v>296.38</v>
+        <v>2.9638</v>
       </c>
       <c r="D322" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5284,10 +5294,10 @@
         <v>66000</v>
       </c>
       <c r="C323">
-        <v>297.04000000000002</v>
+        <v>2.9704000000000002</v>
       </c>
       <c r="D323" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5298,10 +5308,10 @@
         <v>66200</v>
       </c>
       <c r="C324">
-        <v>297.69</v>
+        <v>2.9769000000000001</v>
       </c>
       <c r="D324" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5312,10 +5322,10 @@
         <v>66400</v>
       </c>
       <c r="C325">
-        <v>298.35000000000002</v>
+        <v>2.9835000000000003</v>
       </c>
       <c r="D325" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5326,10 +5336,10 @@
         <v>66600</v>
       </c>
       <c r="C326">
-        <v>299</v>
+        <v>2.99</v>
       </c>
       <c r="D326" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5340,10 +5350,10 @@
         <v>66800</v>
       </c>
       <c r="C327">
-        <v>299.17</v>
+        <v>2.9917000000000002</v>
       </c>
       <c r="D327" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5354,10 +5364,10 @@
         <v>67000</v>
       </c>
       <c r="C328">
-        <v>299.33</v>
+        <v>2.9932999999999996</v>
       </c>
       <c r="D328" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5368,10 +5378,10 @@
         <v>67200</v>
       </c>
       <c r="C329">
-        <v>299.5</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="D329" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
